--- a/pred_ohlcv/54_21/2020-01-15 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 XLM ohlcv.xlsx
@@ -990,7 +990,7 @@
         <v>80701.45185252998</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>70117.99575252997</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>70117.99575252997</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>70314.07145252997</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>41270.55145252996</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>41270.55145252996</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>41695.67535252996</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>41695.67535252996</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>460868.3450127199</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>353653.5562127199</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>351684.30161272</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>354556.83161272</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>312114.08001272</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>312114.08001272</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>274821.5598127199</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>277567.3150127199</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>277567.3150127199</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>277567.3150127199</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>309217.08971272</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>309217.08971272</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>309207.9656127199</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>174723.09701272</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>176884.7536127199</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>68750.81271271994</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>70493.27891271994</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>30725.63271271993</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>30725.63271271993</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>31269.99861271993</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>25769.99861271993</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>25769.99861271993</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>25760.87611271993</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>80431.75906649993</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>62273.05196644993</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>61933.33456644993</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>7920.630766449925</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>54312.22129251993</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>107439.7582837299</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-86373.08311627008</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-86373.08311627008</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-86373.08311627008</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>246000247.6357948</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>246000247.6357948</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>245846909.6357948</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>246180835.6357948</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>246180835.6357948</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>246428861.7164948</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>246422531.4968948</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>246410739.9670948</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>246410739.9670948</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>246410739.9670948</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>246410739.9670948</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>246399911.8031948</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>246372059.7990638</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>246337424.3751638</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>246366761.4289638</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>246366761.4289638</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>246366761.4289638</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>246366761.4289638</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>246377944.0859638</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>246364681.3639638</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>246350737.5092638</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>246350737.5092638</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>246364152.9469638</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>246364152.9469638</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>246364152.9469638</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>246364132.9469638</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>246364132.9469638</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>246402333.0459638</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>246253726.7379718</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>246185867.8600718</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>246185411.1658718</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>246539933.5098718</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>246542137.1508718</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>246543951.9879718</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>246540111.4851719</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>246540120.5862719</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>246538879.9320719</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>246759699.9698222</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>246710122.1369222</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>246687223.4702222</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>246698208.1219263</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>246678267.5817263</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>246678267.5817263</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>246678881.4067263</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>246674545.6858263</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>246674545.6858263</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>246675024.0448263</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>246679925.0995263</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>246676714.2796263</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>246665169.9156263</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>246649814.8912263</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>246710773.6893263</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>246709758.3749262</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>246673480.2028262</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>246613851.7751987</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>246613572.2011987</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>246599141.7018987</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>246599141.7018987</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>246599141.7018987</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>246636185.3707987</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>246624050.2103987</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>246624050.2103987</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>246621938.5014987</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>246621938.5014987</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>246591721.8230987</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>246585926.8211987</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>246608464.2036987</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>246586552.3572987</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>246680052.9189987</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>246687422.9972987</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>246664507.4280987</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>246663788.4013987</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>246663788.4013987</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>246663788.4013987</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>246663788.4013987</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>246663797.4266987</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>246663797.4266987</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>246663797.4266987</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>246662763.8526987</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>246662763.8526987</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>246662772.8779987</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>246662772.8779987</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>246662750.4228987</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>246659560.5708987</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>246685949.2945987</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>246685949.2945987</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>246685556.1813987</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>246685574.2843987</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>246685565.2328987</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>246690967.1578987</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>246690937.1578987</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>246693931.9052987</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>246689075.0631987</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>246718754.3274987</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>246722222.3529987</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>246722204.2533987</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>246722256.3778987</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>246704218.3014987</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>246670318.3014987</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>246670318.3014987</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>246777567.9916683</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>246789231.3703683</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>246789231.3703683</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>246785030.3086683</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>246785030.3086683</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>246788828.3476683</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>246818428.7097683</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>246818428.7097683</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>246822827.4582683</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>246831015.8382683</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>246831015.8382683</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>246831015.8382683</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>246855665.7261868</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>246855665.7261868</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>246924776.6103683</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>247013870.1878107</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>247013849.7540106</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>247071143.0006106</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>247196568.3668106</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>247194243.7992106</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>247203095.8891106</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>247203110.4640106</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>247196502.3312106</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>247223975.2850106</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>247223975.2850106</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>247223975.2850106</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>247226326.2267106</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>247226326.2267106</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>245675879.6728106</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>245675879.6728106</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>245687687.5823106</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>245678405.0803106</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>245678405.0803106</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>245679153.3794106</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>245673804.8204106</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>245673804.8204106</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>245618016.5156147</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>245618016.5156147</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>245618016.5156147</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>244954768.245032</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>245346515.595532</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>245346515.595532</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>245366927.309432</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>245294396.202932</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>245222755.346532</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>245244097.942932</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>245367935.894032</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>245367935.894032</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>245367935.894032</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>245943299.9442419</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>245943299.9442419</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 XLM ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>51848.08945252998</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>51848.08945252998</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>44868.44875252998</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -964,7 +964,7 @@
         <v>80744.45185252998</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>70117.99575252997</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>70117.99575252997</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>70314.07145252997</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>41270.55145252996</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>41270.55145252996</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>41695.67535252996</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>41695.67535252996</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>460868.3450127199</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>353653.5562127199</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>351684.30161272</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>354556.83161272</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>312114.08001272</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>312114.08001272</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>274821.5598127199</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>277567.3150127199</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>277567.3150127199</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>277567.3150127199</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>309217.08971272</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>309217.08971272</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>309207.9656127199</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>174723.09701272</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>176884.7536127199</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>68750.81271271994</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>70493.27891271994</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>30725.63271271993</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>30725.63271271993</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>31269.99861271993</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>25769.99861271993</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>25769.99861271993</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>25760.87611271993</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>80431.75906649993</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>62273.05196644993</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>61933.33456644993</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>7920.630766449925</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>54312.22129251993</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>107439.7582837299</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-86373.08311627008</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-86373.08311627008</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-86373.08311627008</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>246000247.6357948</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>246000247.6357948</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>245846909.6357948</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>246180835.6357948</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>246180835.6357948</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>246428861.7164948</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>246422531.4968948</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>246410739.9670948</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>246410739.9670948</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>246410739.9670948</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>246410739.9670948</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>246399911.8031948</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>246372059.7990638</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>246337424.3751638</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>246366761.4289638</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>246366761.4289638</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>246366761.4289638</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>246366761.4289638</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>246377944.0859638</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>246364681.3639638</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>246350737.5092638</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>246350737.5092638</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>246364152.9469638</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>246364152.9469638</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>246364152.9469638</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>246364132.9469638</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>246364132.9469638</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>246402333.0459638</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>246253726.7379718</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>246185867.8600718</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>246185411.1658718</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>246539933.5098718</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>246542137.1508718</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>246543951.9879718</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>246540111.4851719</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>246540120.5862719</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>246538879.9320719</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>246759699.9698222</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>246710122.1369222</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>246687223.4702222</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>246698208.1219263</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>246678267.5817263</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>246678267.5817263</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>246678881.4067263</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>246674545.6858263</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>246674545.6858263</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>246675024.0448263</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>246679925.0995263</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>246676714.2796263</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>246665169.9156263</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>246649814.8912263</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>246710773.6893263</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>246709758.3749262</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>246673480.2028262</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>246613851.7751987</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>246613572.2011987</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>246599141.7018987</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>246599141.7018987</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>246599141.7018987</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>246636185.3707987</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>246624050.2103987</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>246624050.2103987</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>246621938.5014987</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>246621938.5014987</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>246591721.8230987</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>246585926.8211987</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>246608464.2036987</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>246586552.3572987</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>246680052.9189987</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>246687422.9972987</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>246664507.4280987</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>246663788.4013987</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>246663788.4013987</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>246663788.4013987</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>246663788.4013987</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>246663797.4266987</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>246663797.4266987</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>246663797.4266987</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>246662763.8526987</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>246662763.8526987</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>246662772.8779987</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>246662772.8779987</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>246662750.4228987</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>246659560.5708987</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>246685949.2945987</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>246685949.2945987</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>246685556.1813987</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>246685574.2843987</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>246685565.2328987</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>246690967.1578987</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>246690937.1578987</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>246693931.9052987</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>246689075.0631987</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>246718754.3274987</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>246722222.3529987</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>246722204.2533987</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>246722256.3778987</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>246704218.3014987</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>246670318.3014987</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>246670318.3014987</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>246777567.9916683</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>246789231.3703683</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>246789231.3703683</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>246785030.3086683</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>246785030.3086683</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>246788828.3476683</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>246818428.7097683</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>246818428.7097683</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>246822827.4582683</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>246831015.8382683</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>246831015.8382683</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>246831015.8382683</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>246855665.7261868</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>246855665.7261868</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>246924776.6103683</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>247013870.1878107</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>247013849.7540106</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>247071143.0006106</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>247196568.3668106</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>247194243.7992106</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>247203095.8891106</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>247203110.4640106</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>247196502.3312106</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>247223975.2850106</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>247223975.2850106</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>247223975.2850106</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>247226326.2267106</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>247226326.2267106</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>245675879.6728106</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>245675879.6728106</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>245687687.5823106</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>245678405.0803106</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>245678405.0803106</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>245679153.3794106</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>245673804.8204106</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>245673804.8204106</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>245618016.5156147</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>245618016.5156147</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>245618016.5156147</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>245346515.595532</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>245346515.595532</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>245366927.309432</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>245294396.202932</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>245222755.346532</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>245244097.942932</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>245367935.894032</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>245367935.894032</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>245367935.894032</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>245943299.9442419</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>245943299.9442419</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
